--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
@@ -546,40 +546,40 @@
         <v>0.05209</v>
       </c>
       <c r="I2">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J2">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2503153333333334</v>
+        <v>0.119639</v>
       </c>
       <c r="N2">
-        <v>0.7509460000000001</v>
+        <v>0.358917</v>
       </c>
       <c r="O2">
-        <v>0.09055430212100421</v>
+        <v>0.02933906125009379</v>
       </c>
       <c r="P2">
-        <v>0.09435844210674454</v>
+        <v>0.03107835843382883</v>
       </c>
       <c r="Q2">
-        <v>0.004346308571111112</v>
+        <v>0.002077331836666666</v>
       </c>
       <c r="R2">
-        <v>0.03911677714</v>
+        <v>0.01869598653</v>
       </c>
       <c r="S2">
-        <v>0.0008872500675707831</v>
+        <v>0.0002531124481555201</v>
       </c>
       <c r="T2">
-        <v>0.0009245229897880695</v>
+        <v>0.000268117623832154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.05209</v>
       </c>
       <c r="I3">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J3">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>0.64308</v>
       </c>
       <c r="O3">
-        <v>0.07754706810872602</v>
+        <v>0.05256748359289284</v>
       </c>
       <c r="P3">
-        <v>0.08080478083644532</v>
+        <v>0.05568382311683939</v>
       </c>
       <c r="Q3">
         <v>0.003722004133333333</v>
@@ -638,10 +638,10 @@
         <v>0.0334980372</v>
       </c>
       <c r="S3">
-        <v>0.0007598053301481319</v>
+        <v>0.0004535075049659166</v>
       </c>
       <c r="T3">
-        <v>0.0007917243640327156</v>
+        <v>0.000480392629867021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.05209</v>
       </c>
       <c r="I4">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J4">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8543153333333334</v>
+        <v>1.018537666666667</v>
       </c>
       <c r="N4">
-        <v>2.562946</v>
+        <v>3.055613</v>
       </c>
       <c r="O4">
-        <v>0.3090578901862707</v>
+        <v>0.2497759007335481</v>
       </c>
       <c r="P4">
-        <v>0.3220412543161725</v>
+        <v>0.2645832770503125</v>
       </c>
       <c r="Q4">
-        <v>0.01483376190444444</v>
+        <v>0.01768520901888889</v>
       </c>
       <c r="R4">
-        <v>0.13350385714</v>
+        <v>0.15916688117</v>
       </c>
       <c r="S4">
-        <v>0.003028145847611237</v>
+        <v>0.002154853871635597</v>
       </c>
       <c r="T4">
-        <v>0.003155356708185906</v>
+        <v>0.002282599311012406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.05209</v>
       </c>
       <c r="I5">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J5">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.33433</v>
+        <v>0.684642</v>
       </c>
       <c r="N5">
-        <v>0.66866</v>
+        <v>1.369284</v>
       </c>
       <c r="O5">
-        <v>0.1209475241686433</v>
+        <v>0.1678946963146358</v>
       </c>
       <c r="P5">
-        <v>0.08401897859379476</v>
+        <v>0.1185652921140734</v>
       </c>
       <c r="Q5">
-        <v>0.005805083233333333</v>
+        <v>0.01188766726</v>
       </c>
       <c r="R5">
-        <v>0.0348304994</v>
+        <v>0.07132600355999999</v>
       </c>
       <c r="S5">
-        <v>0.001185042526723386</v>
+        <v>0.001448452534124254</v>
       </c>
       <c r="T5">
-        <v>0.0008232170387107601</v>
+        <v>0.00102288042202344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.05209</v>
       </c>
       <c r="I6">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J6">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.110936</v>
+        <v>2.040627333333334</v>
       </c>
       <c r="N6">
-        <v>3.332808</v>
+        <v>6.121882</v>
       </c>
       <c r="O6">
-        <v>0.4018932154153557</v>
+        <v>0.5004228581088294</v>
       </c>
       <c r="P6">
-        <v>0.4187765441468428</v>
+        <v>0.5300892492849458</v>
       </c>
       <c r="Q6">
-        <v>0.01928955208</v>
+        <v>0.03543209259777778</v>
       </c>
       <c r="R6">
-        <v>0.17360596872</v>
+        <v>0.31888883338</v>
       </c>
       <c r="S6">
-        <v>0.003937745354793082</v>
+        <v>0.004317222478565272</v>
       </c>
       <c r="T6">
-        <v>0.004103168026129171</v>
+        <v>0.004573158850711542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>25</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.023931333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.071794</v>
+      </c>
+      <c r="I7">
+        <v>0.5087507014009469</v>
+      </c>
+      <c r="J7">
+        <v>0.5087507014009469</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>1.297778666666667</v>
-      </c>
-      <c r="H7">
-        <v>3.893336</v>
-      </c>
-      <c r="I7">
-        <v>0.7323260471330489</v>
-      </c>
-      <c r="J7">
-        <v>0.7323260471330488</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.2503153333333334</v>
+        <v>0.119639</v>
       </c>
       <c r="N7">
-        <v>0.7509460000000001</v>
+        <v>0.358917</v>
       </c>
       <c r="O7">
-        <v>0.09055430212100421</v>
+        <v>0.02933906125009379</v>
       </c>
       <c r="P7">
-        <v>0.09435844210674454</v>
+        <v>0.03107835843382883</v>
       </c>
       <c r="Q7">
-        <v>0.3248538995395556</v>
+        <v>0.1225021207886667</v>
       </c>
       <c r="R7">
-        <v>2.923685095856</v>
+        <v>1.102519087098</v>
       </c>
       <c r="S7">
-        <v>0.06631527412316689</v>
+        <v>0.01492626798943056</v>
       </c>
       <c r="T7">
-        <v>0.06910114492166486</v>
+        <v>0.01581113665160045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.297778666666667</v>
+        <v>1.023931333333333</v>
       </c>
       <c r="H8">
-        <v>3.893336</v>
+        <v>3.071794</v>
       </c>
       <c r="I8">
-        <v>0.7323260471330489</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="J8">
-        <v>0.7323260471330488</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>0.64308</v>
       </c>
       <c r="O8">
-        <v>0.07754706810872602</v>
+        <v>0.05256748359289284</v>
       </c>
       <c r="P8">
-        <v>0.08080478083644532</v>
+        <v>0.05568382311683939</v>
       </c>
       <c r="Q8">
-        <v>0.2781918349866667</v>
+        <v>0.2194899206133333</v>
       </c>
       <c r="R8">
-        <v>2.50372651488</v>
+        <v>1.97540928552</v>
       </c>
       <c r="S8">
-        <v>0.05678973785482065</v>
+        <v>0.026743744148767</v>
       </c>
       <c r="T8">
-        <v>0.05917544573940633</v>
+        <v>0.0283291840673783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.297778666666667</v>
+        <v>1.023931333333333</v>
       </c>
       <c r="H9">
-        <v>3.893336</v>
+        <v>3.071794</v>
       </c>
       <c r="I9">
-        <v>0.7323260471330489</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="J9">
-        <v>0.7323260471330488</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8543153333333334</v>
+        <v>1.018537666666667</v>
       </c>
       <c r="N9">
-        <v>2.562946</v>
+        <v>3.055613</v>
       </c>
       <c r="O9">
-        <v>0.3090578901862707</v>
+        <v>0.2497759007335481</v>
       </c>
       <c r="P9">
-        <v>0.3220412543161725</v>
+        <v>0.2645832770503125</v>
       </c>
       <c r="Q9">
-        <v>1.108712214206222</v>
+        <v>1.042912631080222</v>
       </c>
       <c r="R9">
-        <v>9.978409927855999</v>
+        <v>9.386213679721999</v>
       </c>
       <c r="S9">
-        <v>0.2263311430553916</v>
+        <v>0.1270736646912459</v>
       </c>
       <c r="T9">
-        <v>0.2358391987871315</v>
+        <v>0.1346069277783076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.297778666666667</v>
+        <v>1.023931333333333</v>
       </c>
       <c r="H10">
-        <v>3.893336</v>
+        <v>3.071794</v>
       </c>
       <c r="I10">
-        <v>0.7323260471330489</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="J10">
-        <v>0.7323260471330488</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.33433</v>
+        <v>0.684642</v>
       </c>
       <c r="N10">
-        <v>0.66866</v>
+        <v>1.369284</v>
       </c>
       <c r="O10">
-        <v>0.1209475241686433</v>
+        <v>0.1678946963146358</v>
       </c>
       <c r="P10">
-        <v>0.08401897859379476</v>
+        <v>0.1185652921140734</v>
       </c>
       <c r="Q10">
-        <v>0.4338863416266667</v>
+        <v>0.7010263959159999</v>
       </c>
       <c r="R10">
-        <v>2.60331804976</v>
+        <v>4.206158375495999</v>
       </c>
       <c r="S10">
-        <v>0.08857302228495144</v>
+        <v>0.08541654451156995</v>
       </c>
       <c r="T10">
-        <v>0.06152928647774996</v>
+        <v>0.06032017552484299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.297778666666667</v>
+        <v>1.023931333333333</v>
       </c>
       <c r="H11">
-        <v>3.893336</v>
+        <v>3.071794</v>
       </c>
       <c r="I11">
-        <v>0.7323260471330489</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="J11">
-        <v>0.7323260471330488</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.110936</v>
+        <v>2.040627333333334</v>
       </c>
       <c r="N11">
-        <v>3.332808</v>
+        <v>6.121882</v>
       </c>
       <c r="O11">
-        <v>0.4018932154153557</v>
+        <v>0.5004228581088294</v>
       </c>
       <c r="P11">
-        <v>0.4187765441468428</v>
+        <v>0.5300892492849458</v>
       </c>
       <c r="Q11">
-        <v>1.441749040832</v>
+        <v>2.089462266256445</v>
       </c>
       <c r="R11">
-        <v>12.975741367488</v>
+        <v>18.805160396308</v>
       </c>
       <c r="S11">
-        <v>0.2943168698147184</v>
+        <v>0.2545904800599335</v>
       </c>
       <c r="T11">
-        <v>0.3066809712070961</v>
+        <v>0.2696832773788176</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H12">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I12">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J12">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2503153333333334</v>
+        <v>0.119639</v>
       </c>
       <c r="N12">
-        <v>0.7509460000000001</v>
+        <v>0.358917</v>
       </c>
       <c r="O12">
-        <v>0.09055430212100421</v>
+        <v>0.02933906125009379</v>
       </c>
       <c r="P12">
-        <v>0.09435844210674454</v>
+        <v>0.03107835843382883</v>
       </c>
       <c r="Q12">
-        <v>0.1143916876184445</v>
+        <v>0.116210624816</v>
       </c>
       <c r="R12">
-        <v>1.029525188566</v>
+        <v>1.045895623344</v>
       </c>
       <c r="S12">
-        <v>0.02335177793026654</v>
+        <v>0.01415968081250771</v>
       </c>
       <c r="T12">
-        <v>0.0243327741952916</v>
+        <v>0.01499910415839622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H13">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I13">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J13">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.64308</v>
       </c>
       <c r="O13">
-        <v>0.07754706810872602</v>
+        <v>0.05256748359289284</v>
       </c>
       <c r="P13">
-        <v>0.08080478083644532</v>
+        <v>0.05568382311683939</v>
       </c>
       <c r="Q13">
-        <v>0.09796044785333333</v>
+        <v>0.20821729984</v>
       </c>
       <c r="R13">
-        <v>0.88164403068</v>
+        <v>1.87395569856</v>
       </c>
       <c r="S13">
-        <v>0.01999752492375724</v>
+        <v>0.02537023193915992</v>
       </c>
       <c r="T13">
-        <v>0.02083761073300626</v>
+        <v>0.02687424641959407</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H14">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I14">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J14">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8543153333333334</v>
+        <v>1.018537666666667</v>
       </c>
       <c r="N14">
-        <v>2.562946</v>
+        <v>3.055613</v>
       </c>
       <c r="O14">
-        <v>0.3090578901862707</v>
+        <v>0.2497759007335481</v>
       </c>
       <c r="P14">
-        <v>0.3220412543161725</v>
+        <v>0.2645832770503125</v>
       </c>
       <c r="Q14">
-        <v>0.3904138489517778</v>
+        <v>0.9893504512906669</v>
       </c>
       <c r="R14">
-        <v>3.513724640566</v>
+        <v>8.904154061616001</v>
       </c>
       <c r="S14">
-        <v>0.07969860128326792</v>
+        <v>0.1205473821706666</v>
       </c>
       <c r="T14">
-        <v>0.08304669882085505</v>
+        <v>0.1276937499609926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H15">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I15">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J15">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.33433</v>
+        <v>0.684642</v>
       </c>
       <c r="N15">
-        <v>0.66866</v>
+        <v>1.369284</v>
       </c>
       <c r="O15">
-        <v>0.1209475241686433</v>
+        <v>0.1678946963146358</v>
       </c>
       <c r="P15">
-        <v>0.08401897859379476</v>
+        <v>0.1185652921140734</v>
       </c>
       <c r="Q15">
-        <v>0.1527855781433334</v>
+        <v>0.665022898848</v>
       </c>
       <c r="R15">
-        <v>0.91671346886</v>
+        <v>3.990137393088</v>
       </c>
       <c r="S15">
-        <v>0.03118945935696846</v>
+        <v>0.08102969926894163</v>
       </c>
       <c r="T15">
-        <v>0.02166647507733403</v>
+        <v>0.05722223616720695</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H16">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I16">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J16">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.110936</v>
+        <v>2.040627333333334</v>
       </c>
       <c r="N16">
-        <v>3.332808</v>
+        <v>6.121882</v>
       </c>
       <c r="O16">
-        <v>0.4018932154153557</v>
+        <v>0.5004228581088294</v>
       </c>
       <c r="P16">
-        <v>0.4187765441468428</v>
+        <v>0.5300892492849458</v>
       </c>
       <c r="Q16">
-        <v>0.5076870129519999</v>
+        <v>1.982151116469334</v>
       </c>
       <c r="R16">
-        <v>4.569183116567999</v>
+        <v>17.839360048224</v>
       </c>
       <c r="S16">
-        <v>0.1036386002458442</v>
+        <v>0.2415151555703306</v>
       </c>
       <c r="T16">
-        <v>0.1079924049136175</v>
+        <v>0.2558328130554167</v>
       </c>
     </row>
   </sheetData>
